--- a/xlsx/和平伙伴关系计划_intext.xlsx
+++ b/xlsx/和平伙伴关系计划_intext.xlsx
@@ -29,7 +29,7 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>政策_政策_美國_和平伙伴关系计划</t>
+    <t>政策_政策_美国_和平伙伴关系计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%AA%E5%BF%B5%E9%82%AE%E7%A5%A8</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
   </si>
   <si>
-    <t>北約擴張</t>
+    <t>北约扩张</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -167,31 +167,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>賽普勒斯問題</t>
+    <t>赛普勒斯问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%A1%94%E5%A7%86%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>Template talk-北大西洋公約組織</t>
+    <t>Template talk-北大西洋公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>北約秘書長</t>
+    <t>北约秘书长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>加拿大軍隊</t>
+    <t>加拿大军队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Army_of_the_Czech_Republic</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>丹麥國防軍</t>
+    <t>丹麦国防军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Estonia_Defence_Forces</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>法國軍事</t>
+    <t>法国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>希臘軍隊</t>
+    <t>希腊军队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Military_of_Iceland</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>盧森堡軍事</t>
+    <t>卢森堡军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E5%86%9B%E9%98%9F</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>波蘭軍事</t>
+    <t>波兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E6%AD%A6%E8%A3%85%E9%83%A8%E9%98%9F</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
   </si>
   <si>
-    <t>主要非北約盟友</t>
+    <t>主要非北约盟友</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
